--- a/Resources/Data.xlsx
+++ b/Resources/Data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A05577-CA98-4A29-869C-FFFC1FB65963}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Navigation" sheetId="1" r:id="rId1"/>
@@ -114,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,12 +133,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -167,12 +186,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,28 +474,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="26.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -486,7 +508,7 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -505,7 +527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -537,7 +559,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -569,7 +591,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -601,7 +623,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -633,7 +655,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
@@ -665,8 +687,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -678,7 +700,7 @@
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -697,7 +719,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
@@ -729,7 +751,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -761,7 +783,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -773,7 +795,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -785,7 +807,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -797,7 +819,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -809,7 +831,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -821,7 +843,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -833,7 +855,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -845,7 +867,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>

--- a/Resources/Data.xlsx
+++ b/Resources/Data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A05577-CA98-4A29-869C-FFFC1FB65963}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C61AA5F-8DC0-438F-B3FC-1BA57DC1CA31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="34">
   <si>
     <t>Scenario</t>
   </si>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>01-04-2022</t>
+  </si>
+  <si>
+    <t>DMS1</t>
+  </si>
+  <si>
+    <t>https://uatlakshya.cloware.com/corestockyng/login/login.xhtml;jsessionid=050971EB4A3A640A230BD6A6A0B5D405</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Admin@123</t>
   </si>
 </sst>
 </file>
@@ -186,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -195,6 +207,8 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,7 +492,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,11 +501,11 @@
     <col min="2" max="2" width="53.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="10.08984375" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -784,16 +798,24 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="A10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
